--- a/Archivo Excel/Calendario-Agenda.xlsx
+++ b/Archivo Excel/Calendario-Agenda.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27504"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5896C53F-C085-48C7-B052-500ECC78FEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD31C10-748D-426D-832A-5A274FABED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="año y mes" sheetId="4" r:id="rId1"/>
@@ -694,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -711,7 +711,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -758,21 +757,13 @@
     <xf numFmtId="49" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -852,11 +843,94 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1527,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A210907F-09E0-4EA2-96C8-56097C8A949F}">
   <dimension ref="A2:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1536,7 +1610,8 @@
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
     <col min="2" max="8" width="11.42578125" style="2" customWidth="1"/>
     <col min="9" max="10" width="3.140625" style="2" customWidth="1"/>
-    <col min="11" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="11" max="13" width="11.42578125" style="30" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1547,12 +1622,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" customHeight="1">
       <c r="D4" s="5"/>
@@ -1560,352 +1635,394 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:19" ht="18.75">
-      <c r="B5" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="17">
+      <c r="B5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="16">
         <v>2024</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="17" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="9"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
       <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="18.75">
-      <c r="B7" s="47" t="str" cm="1">
+      <c r="B7" s="44" t="str" cm="1">
         <f t="array" ref="B7:H7">VLOOKUP(_xlfn.ANCHORARRAY(Formulas!E16),Formulas!A15:B21, 2,FALSE)</f>
         <v>Viernes</v>
       </c>
-      <c r="C7" s="48" t="str">
+      <c r="C7" s="45" t="str">
         <v>Sábado</v>
       </c>
-      <c r="D7" s="48" t="str">
+      <c r="D7" s="45" t="str">
         <v>Domingo</v>
       </c>
-      <c r="E7" s="49" t="str">
+      <c r="E7" s="46" t="str">
         <v>Lunes</v>
       </c>
-      <c r="F7" s="49" t="str">
+      <c r="F7" s="46" t="str">
         <v>Martes</v>
       </c>
-      <c r="G7" s="49" t="str">
+      <c r="G7" s="46" t="str">
         <v>Miércoles</v>
       </c>
-      <c r="H7" s="50" t="str">
+      <c r="H7" s="47" t="str">
         <v>Jueves</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="K7" s="29" t="s">
+      <c r="I7" s="58"/>
+      <c r="K7" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="64" t="s">
+      <c r="L7" s="66"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="65"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="11"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="51" cm="1">
+      <c r="B8" s="48" cm="1">
         <f t="array" ref="B8:H12">DAY(_xlfn.SEQUENCE(5,7,Formulas!F2,1))</f>
         <v>1</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>2</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>3</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="49">
         <v>4</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>5</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>6</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="50">
         <v>7</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <v>45363</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="26" t="s">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="12"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="51">
+      <c r="B9" s="48">
         <v>8</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>9</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>10</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>11</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>12</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>13</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="50">
         <v>14</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>45365</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="26" t="s">
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="13"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="B10" s="51">
+      <c r="B10" s="48">
         <v>15</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>16</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>17</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>18</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>19</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>20</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="50">
         <v>21</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <v>45366</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="26" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="14"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="B11" s="54">
+      <c r="B11" s="51">
         <v>22</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>23</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>24</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="49">
         <v>25</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>26</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>27</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="52">
         <v>28</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="28"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="27"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="B12" s="56">
+      <c r="B12" s="53">
         <v>29</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="54">
         <v>30</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="55">
         <v>31</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="56">
         <v>1</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="54">
         <v>2</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="54">
         <v>3</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="57">
         <v>4</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="28"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="27"/>
     </row>
     <row r="13" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="27"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="27"/>
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" s="3"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11">
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19" s="1"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="L19" s="23"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="68"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="68"/>
+    </row>
+    <row r="22" spans="2:16">
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:16">
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
     </row>
     <row r="46" spans="14:16">
-      <c r="N46" s="26" t="s">
+      <c r="N46" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O46" s="27"/>
-      <c r="P46" s="28"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="27"/>
     </row>
     <row r="47" spans="14:16">
-      <c r="N47" s="26" t="s">
+      <c r="N47" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="O47" s="27"/>
-      <c r="P47" s="28"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="27"/>
     </row>
     <row r="48" spans="14:16">
-      <c r="N48" s="26" t="s">
+      <c r="N48" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="O48" s="27"/>
-      <c r="P48" s="28"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="31">
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K7:M7"/>
@@ -1923,25 +2040,69 @@
     <mergeCell ref="N47:P47"/>
     <mergeCell ref="N48:P48"/>
     <mergeCell ref="N11:P11"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
   </mergeCells>
-  <conditionalFormatting sqref="K8:M10 N46:P48 K11:P11 K12 N12:P12">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
+  <conditionalFormatting sqref="K8:M10 N46:P48 K11:P12 K13:M19">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="13">
       <formula>LEN(TRIM(K8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:P10">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="10">
       <formula>LEN(TRIM(N10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:P9">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="9">
       <formula>LEN(TRIM(N9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:P8">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(N8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:P13">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(N13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:P14">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(N14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:P15">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(N15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:P16">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(N16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17:P17">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(N17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18:P18">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(N18))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:P19">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(N8))&gt;0</formula>
+      <formula>LEN(TRIM(N19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1953,7 +2114,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="20" id="{00000000-000E-0000-0000-000006000000}">
+          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0000-000006000000}">
             <xm:f>B8=Formulas!$I$1</xm:f>
             <x14:dxf>
               <font>
@@ -1983,7 +2144,7 @@
           <xm:sqref>B8:H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="27" id="{425CC81E-5A0D-49F3-9F40-29A47AC8E101}">
+          <x14:cfRule type="expression" priority="34" id="{425CC81E-5A0D-49F3-9F40-29A47AC8E101}">
             <xm:f>B8&lt;&gt;Formulas!A35</xm:f>
             <x14:dxf>
               <font>
@@ -1999,7 +2160,7 @@
           <xm:sqref>B8:H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="19" id="{84E9FA8A-4B1D-4039-B231-3C7DDD59E79B}">
+          <x14:cfRule type="expression" priority="26" id="{84E9FA8A-4B1D-4039-B231-3C7DDD59E79B}">
             <xm:f>B8=Formulas!A49:G53</xm:f>
             <x14:dxf>
               <font>
@@ -2029,7 +2190,7 @@
           <xm:sqref>B8:H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="8" id="{3358260A-75C4-4648-A6E1-072CAC51C89B}">
+          <x14:cfRule type="expression" priority="15" id="{3358260A-75C4-4648-A6E1-072CAC51C89B}">
             <xm:f>B8=Formulas!A55</xm:f>
             <x14:dxf>
               <font>
@@ -2071,13 +2232,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB07692D-F0F3-41EE-B2BE-C332B03B01BB}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A46" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2090,7 +2251,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2108,20 +2269,20 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="34">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="32">
         <f t="shared" ref="C2:C6" si="0">A2 + 2023</f>
         <v>2024</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="33">
         <f>DATE('año y mes'!D5,H9,1)</f>
         <v>45352</v>
       </c>
@@ -2134,7 +2295,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="34">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2147,7 +2308,7 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="34">
         <f>DATE('año y mes'!D5,Formulas!H9+1,1)-1</f>
         <v>45382</v>
       </c>
@@ -2157,7 +2318,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="34">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2170,7 +2331,7 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="34">
         <f>DATE('año y mes'!D5,Formulas!H9+1,1)</f>
         <v>45383</v>
       </c>
@@ -2183,7 +2344,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="34">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2193,26 +2354,26 @@
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="35">
         <f ca="1">WEEKNUM(I2)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="35">
         <f>DAY(F2)</f>
         <v>1</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="34">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2222,82 +2383,82 @@
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="35">
         <f ca="1">WEEKDAY(TODAY())</f>
         <v>2</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="38"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="34">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="35">
         <f ca="1">MONTH(TODAY())</f>
         <v>3</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="34">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="35">
         <f ca="1">YEAR(TODAY())</f>
         <v>2024</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="34">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="38" t="e">
+      <c r="E9" s="35" t="e">
         <f>VLOOKUP('año y mes'!H5,A2:B13, 1,TRUE )</f>
         <v>#N/A</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="41">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="38">
         <f>IF('año y mes'!H5=B2, A2, IF('año y mes'!H5=B3, A3, IF('año y mes'!H5=B13, A13, IF('año y mes'!H5=B5, A5, IF('año y mes'!H5=B6, A6, IF('año y mes'!H5=B7, A7, IF('año y mes'!H5=B8, A8, IF('año y mes'!H5=B9, A9, IF('año y mes'!H5=B10, A10, IF('año y mes'!H5=B11, A11, IF('año y mes'!H5=B12,A12, A4)))))))))))</f>
         <v>3</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="34">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2305,7 +2466,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="34">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2313,7 +2474,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="34">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2321,7 +2482,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="34">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2329,7 +2490,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="38" t="str" cm="1">
+      <c r="A15" s="35" t="str" cm="1">
         <f t="array" ref="A15:A21">TEXT(_xlfn.SEQUENCE(7,1,F2,1), "dddd")</f>
         <v>Friday</v>
       </c>
@@ -2339,18 +2500,18 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="38" t="str">
+      <c r="A16" s="35" t="str">
         <v>Saturday</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" ref="B16:B21" si="1">IF(A16="Friday", "Viernes", IF(A16="Saturday", "Sábado", IF(A16="Sunday", "Domingo", IF(A16="Monday", "Lunes", IF(A16="Tuesday", "Martes", IF(A16="Wednesday", "Miércoles", "Jueves"))))))</f>
         <v>Sábado</v>
       </c>
-      <c r="E16" s="36" t="str" cm="1">
+      <c r="E16" s="33" t="str" cm="1">
         <f t="array" ref="E16:K16">TEXT(_xlfn.SEQUENCE(1,7,F2,1), "dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="F16" s="36" t="str">
+      <c r="F16" s="33" t="str">
         <v>Saturday</v>
       </c>
       <c r="G16" s="1" t="str">
@@ -2359,18 +2520,18 @@
       <c r="H16" s="1" t="str">
         <v>Monday</v>
       </c>
-      <c r="I16" s="36" t="str">
+      <c r="I16" s="33" t="str">
         <v>Tuesday</v>
       </c>
-      <c r="J16" s="36" t="str">
+      <c r="J16" s="33" t="str">
         <v>Wednesday</v>
       </c>
-      <c r="K16" s="36" t="str">
+      <c r="K16" s="33" t="str">
         <v>Thursday</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="38" t="str">
+      <c r="A17" s="35" t="str">
         <v>Sunday</v>
       </c>
       <c r="B17" s="1" t="str">
@@ -2379,7 +2540,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="38" t="str">
+      <c r="A18" s="35" t="str">
         <v>Monday</v>
       </c>
       <c r="B18" s="1" t="str">
@@ -2388,7 +2549,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="38" t="str">
+      <c r="A19" s="35" t="str">
         <v>Tuesday</v>
       </c>
       <c r="B19" s="1" t="str">
@@ -2397,7 +2558,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="38" t="str">
+      <c r="A20" s="35" t="str">
         <v>Wednesday</v>
       </c>
       <c r="B20" s="1" t="str">
@@ -2406,7 +2567,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="38" t="str">
+      <c r="A21" s="35" t="str">
         <v>Thursday</v>
       </c>
       <c r="B21" s="1" t="str">
@@ -2415,128 +2576,128 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="42" cm="1">
+      <c r="A23" s="39" cm="1">
         <f t="array" ref="A23:G27">_xlfn.SEQUENCE(5,7,F2,1)</f>
         <v>45352</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="36">
         <v>45353</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="36">
         <v>45354</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="36">
         <v>45355</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="36">
         <v>45356</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="36">
         <v>45357</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="36">
         <v>45358</v>
       </c>
-      <c r="H23" s="36"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="42">
+      <c r="A24" s="39">
         <v>45359</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="36">
         <v>45360</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="36">
         <v>45361</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="36">
         <v>45362</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="36">
         <v>45363</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="36">
         <v>45364</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="36">
         <v>45365</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="42">
+      <c r="A25" s="39">
         <v>45366</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="36">
         <v>45367</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="36">
         <v>45368</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="36">
         <v>45369</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="36">
         <v>45370</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="36">
         <v>45371</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="36">
         <v>45372</v>
       </c>
-      <c r="H25" s="36"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="42">
+      <c r="A26" s="39">
         <v>45373</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="36">
         <v>45374</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="36">
         <v>45375</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="36">
         <v>45376</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="36">
         <v>45377</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="36">
         <v>45378</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="36">
         <v>45379</v>
       </c>
-      <c r="H26" s="36"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="42">
+      <c r="A27" s="39">
         <v>45380</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="36">
         <v>45381</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="36">
         <v>45382</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="36">
         <v>45383</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="36">
         <v>45384</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="36">
         <v>45385</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="36">
         <v>45386</v>
       </c>
-      <c r="H27" s="36"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="34" cm="1">
+      <c r="A29" s="31" cm="1">
         <f t="array" ref="A29:G33">DAY(_xlfn.SEQUENCE(5,7,Formulas!F2,1))</f>
         <v>1</v>
       </c>
@@ -2560,7 +2721,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="34">
+      <c r="A30" s="31">
         <v>8</v>
       </c>
       <c r="B30" s="1">
@@ -2583,7 +2744,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="34">
+      <c r="A31" s="31">
         <v>15</v>
       </c>
       <c r="B31" s="1">
@@ -2606,7 +2767,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="34">
+      <c r="A32" s="31">
         <v>22</v>
       </c>
       <c r="B32" s="1">
@@ -2629,7 +2790,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="34">
+      <c r="A33" s="31">
         <v>29</v>
       </c>
       <c r="B33" s="1">
@@ -2652,569 +2813,588 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="34" cm="1">
+      <c r="A35" s="31" cm="1">
         <f t="array" ref="A35:G39">IF(MONTH(_xlfn.ANCHORARRAY(A23))=H9,DAY(_xlfn.ANCHORARRAY(A23)),0)</f>
         <v>1</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="31">
         <v>2</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="31">
         <v>3</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="31">
         <v>4</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="31">
         <v>5</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="31">
         <v>6</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="31">
         <v>7</v>
       </c>
-      <c r="H35" s="34"/>
+      <c r="H35" s="31"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="34">
+      <c r="A36" s="31">
         <v>8</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="31">
         <v>9</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="31">
         <v>10</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="31">
         <v>11</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="31">
         <v>12</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="31">
         <v>13</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="31">
         <v>14</v>
       </c>
-      <c r="H36" s="34"/>
+      <c r="H36" s="31"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="34">
+      <c r="A37" s="31">
         <v>15</v>
       </c>
-      <c r="B37" s="34">
+      <c r="B37" s="31">
         <v>16</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="31">
         <v>17</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="31">
         <v>18</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="31">
         <v>19</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="31">
         <v>20</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="31">
         <v>21</v>
       </c>
-      <c r="H37" s="34"/>
+      <c r="H37" s="31"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="34">
+      <c r="A38" s="31">
         <v>22</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="31">
         <v>23</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="31">
         <v>24</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="31">
         <v>25</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="31">
         <v>26</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="31">
         <v>27</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="31">
         <v>28</v>
       </c>
-      <c r="H38" s="34"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="34">
+      <c r="A39" s="31">
         <v>29</v>
       </c>
-      <c r="B39" s="34">
+      <c r="B39" s="31">
         <v>30</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="31">
         <v>31</v>
       </c>
-      <c r="D39" s="34">
-        <v>0</v>
-      </c>
-      <c r="E39" s="34">
-        <v>0</v>
-      </c>
-      <c r="F39" s="34">
-        <v>0</v>
-      </c>
-      <c r="G39" s="34">
-        <v>0</v>
-      </c>
-      <c r="H39" s="34"/>
+      <c r="D39" s="31">
+        <v>0</v>
+      </c>
+      <c r="E39" s="31">
+        <v>0</v>
+      </c>
+      <c r="F39" s="31">
+        <v>0</v>
+      </c>
+      <c r="G39" s="31">
+        <v>0</v>
+      </c>
+      <c r="H39" s="31"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="34" cm="1">
+      <c r="A42" s="31" cm="1">
         <f t="array" ref="A42:G46">IF(WEEKDAY(_xlfn.ANCHORARRAY(A23))&gt;=7,DAY(_xlfn.ANCHORARRAY(A23)),0)</f>
         <v>0</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="31">
         <v>2</v>
       </c>
-      <c r="C42" s="34">
-        <v>0</v>
-      </c>
-      <c r="D42" s="34">
-        <v>0</v>
-      </c>
-      <c r="E42" s="34">
-        <v>0</v>
-      </c>
-      <c r="F42" s="34">
-        <v>0</v>
-      </c>
-      <c r="G42" s="34">
+      <c r="C42" s="31">
+        <v>0</v>
+      </c>
+      <c r="D42" s="31">
+        <v>0</v>
+      </c>
+      <c r="E42" s="31">
+        <v>0</v>
+      </c>
+      <c r="F42" s="31">
+        <v>0</v>
+      </c>
+      <c r="G42" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="34">
-        <v>0</v>
-      </c>
-      <c r="B43" s="34">
+      <c r="A43" s="31">
+        <v>0</v>
+      </c>
+      <c r="B43" s="31">
         <v>9</v>
       </c>
-      <c r="C43" s="34">
-        <v>0</v>
-      </c>
-      <c r="D43" s="34">
-        <v>0</v>
-      </c>
-      <c r="E43" s="34">
-        <v>0</v>
-      </c>
-      <c r="F43" s="34">
-        <v>0</v>
-      </c>
-      <c r="G43" s="34">
+      <c r="C43" s="31">
+        <v>0</v>
+      </c>
+      <c r="D43" s="31">
+        <v>0</v>
+      </c>
+      <c r="E43" s="31">
+        <v>0</v>
+      </c>
+      <c r="F43" s="31">
+        <v>0</v>
+      </c>
+      <c r="G43" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="34">
-        <v>0</v>
-      </c>
-      <c r="B44" s="34">
+      <c r="A44" s="31">
+        <v>0</v>
+      </c>
+      <c r="B44" s="31">
         <v>16</v>
       </c>
-      <c r="C44" s="34">
-        <v>0</v>
-      </c>
-      <c r="D44" s="34">
-        <v>0</v>
-      </c>
-      <c r="E44" s="34">
-        <v>0</v>
-      </c>
-      <c r="F44" s="34">
-        <v>0</v>
-      </c>
-      <c r="G44" s="34">
+      <c r="C44" s="31">
+        <v>0</v>
+      </c>
+      <c r="D44" s="31">
+        <v>0</v>
+      </c>
+      <c r="E44" s="31">
+        <v>0</v>
+      </c>
+      <c r="F44" s="31">
+        <v>0</v>
+      </c>
+      <c r="G44" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="34">
-        <v>0</v>
-      </c>
-      <c r="B45" s="34">
+      <c r="A45" s="31">
+        <v>0</v>
+      </c>
+      <c r="B45" s="31">
         <v>23</v>
       </c>
-      <c r="C45" s="34">
-        <v>0</v>
-      </c>
-      <c r="D45" s="34">
-        <v>0</v>
-      </c>
-      <c r="E45" s="34">
-        <v>0</v>
-      </c>
-      <c r="F45" s="34">
-        <v>0</v>
-      </c>
-      <c r="G45" s="34">
+      <c r="C45" s="31">
+        <v>0</v>
+      </c>
+      <c r="D45" s="31">
+        <v>0</v>
+      </c>
+      <c r="E45" s="31">
+        <v>0</v>
+      </c>
+      <c r="F45" s="31">
+        <v>0</v>
+      </c>
+      <c r="G45" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="34">
-        <v>0</v>
-      </c>
-      <c r="B46" s="34">
+      <c r="A46" s="31">
+        <v>0</v>
+      </c>
+      <c r="B46" s="31">
         <v>30</v>
       </c>
-      <c r="C46" s="34">
-        <v>0</v>
-      </c>
-      <c r="D46" s="34">
-        <v>0</v>
-      </c>
-      <c r="E46" s="34">
-        <v>0</v>
-      </c>
-      <c r="F46" s="34">
-        <v>0</v>
-      </c>
-      <c r="G46" s="34">
+      <c r="C46" s="31">
+        <v>0</v>
+      </c>
+      <c r="D46" s="31">
+        <v>0</v>
+      </c>
+      <c r="E46" s="31">
+        <v>0</v>
+      </c>
+      <c r="F46" s="31">
+        <v>0</v>
+      </c>
+      <c r="G46" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="34">
+      <c r="A49" s="31">
         <f>IF(OR(WEEKDAY(A23)=7, WEEKDAY(A23)=1), DAY(A23),504)</f>
         <v>504</v>
       </c>
-      <c r="B49" s="34">
+      <c r="B49" s="31">
         <f t="shared" ref="B49:G49" si="2">IF(OR(WEEKDAY(B23)=7, WEEKDAY(B23)=1), DAY(B23),504)</f>
         <v>2</v>
       </c>
-      <c r="C49" s="34">
+      <c r="C49" s="31">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="31">
         <f t="shared" si="2"/>
         <v>504</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="31">
         <f t="shared" si="2"/>
         <v>504</v>
       </c>
-      <c r="F49" s="34">
+      <c r="F49" s="31">
         <f t="shared" si="2"/>
         <v>504</v>
       </c>
-      <c r="G49" s="34">
+      <c r="G49" s="31">
         <f t="shared" si="2"/>
         <v>504</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="34">
+      <c r="A50" s="31">
         <f t="shared" ref="A50:G50" si="3">IF(OR(WEEKDAY(A24)=7, WEEKDAY(A24)=1), DAY(A24),504)</f>
         <v>504</v>
       </c>
-      <c r="B50" s="34">
+      <c r="B50" s="31">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C50" s="31">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="31">
         <f t="shared" si="3"/>
         <v>504</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="31">
         <f t="shared" si="3"/>
         <v>504</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="31">
         <f t="shared" si="3"/>
         <v>504</v>
       </c>
-      <c r="G50" s="34">
+      <c r="G50" s="31">
         <f t="shared" si="3"/>
         <v>504</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="34">
+      <c r="A51" s="31">
         <f t="shared" ref="A51:G51" si="4">IF(OR(WEEKDAY(A25)=7, WEEKDAY(A25)=1), DAY(A25),504)</f>
         <v>504</v>
       </c>
-      <c r="B51" s="34">
+      <c r="B51" s="31">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="C51" s="34">
+      <c r="C51" s="31">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="D51" s="34">
+      <c r="D51" s="31">
         <f t="shared" si="4"/>
         <v>504</v>
       </c>
-      <c r="E51" s="34">
+      <c r="E51" s="31">
         <f t="shared" si="4"/>
         <v>504</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="31">
         <f t="shared" si="4"/>
         <v>504</v>
       </c>
-      <c r="G51" s="34">
+      <c r="G51" s="31">
         <f t="shared" si="4"/>
         <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="34">
+      <c r="A52" s="31">
         <f t="shared" ref="A52:G53" si="5">IF(OR(WEEKDAY(A26)=7, WEEKDAY(A26)=1), DAY(A26),504)</f>
         <v>504</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B52" s="31">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="C52" s="34">
+      <c r="C52" s="31">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="D52" s="34">
+      <c r="D52" s="31">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="31">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
-      <c r="F52" s="34">
+      <c r="F52" s="31">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
-      <c r="G52" s="34">
+      <c r="G52" s="31">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="34">
+      <c r="A53" s="31">
         <f>IF(OR(WEEKDAY(A27)=7, WEEKDAY(A27)=1), DAY(A27),504)</f>
         <v>504</v>
       </c>
-      <c r="B53" s="34">
+      <c r="B53" s="31">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C53" s="31">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="D53" s="34">
+      <c r="D53" s="31">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
-      <c r="E53" s="34">
+      <c r="E53" s="31">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="31">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
-      <c r="G53" s="34">
+      <c r="G53" s="31">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="43" cm="1">
+      <c r="A55" s="40" cm="1">
         <f t="array" ref="A55:G59">IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K8, "dd/mm/yyyy"), DAY('año y mes'!K8),
-    IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K9, "dd/mm/yyyy"),  DAY('año y mes'!K9),
-        IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K10, "dd/mm/yyyy"),  DAY('año y mes'!K10),
-            IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K11, "dd/mm/yyyy"),  DAY('año y mes'!K11),
-                IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K12, "dd/mm/yyyy"),  DAY('año y mes'!K12),
- 0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="B55" s="41">
-        <v>0</v>
-      </c>
-      <c r="C55" s="38">
-        <v>0</v>
-      </c>
-      <c r="D55" s="38">
-        <v>0</v>
-      </c>
-      <c r="E55" s="38">
-        <v>0</v>
-      </c>
-      <c r="F55" s="38">
-        <v>0</v>
-      </c>
-      <c r="G55" s="38">
+    IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K9, "dd/mm/yyyy"), DAY('año y mes'!K9),
+        IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K10, "dd/mm/yyyy"), DAY('año y mes'!K10),
+            IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K11, "dd/mm/yyyy"), DAY('año y mes'!K11),
+                IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K12, "dd/mm/yyyy"), DAY('año y mes'!K12),
+                    IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K13, "dd/mm/yyyy"), DAY('año y mes'!K13),
+                        IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K14, "dd/mm/yyyy"), DAY('año y mes'!K14),
+                            IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K15, "dd/mm/yyyy"), DAY('año y mes'!K15),
+                                IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K16, "dd/mm/yyyy"), DAY('año y mes'!K16),
+                                    IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K17, "dd/mm/yyyy"), DAY('año y mes'!K17),
+                                        IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K18, "dd/mm/yyyy"), DAY('año y mes'!K18),
+                                            IF(TEXT(_xlfn.ANCHORARRAY(A23), "dd/mm/yyyy")=TEXT('año y mes'!K19, "dd/mm/yyyy"), DAY('año y mes'!K19),
+                                                0
+                                            )
+                                        )
+                                    )
+                                )
+                            )
+                        )
+                    )
+                )
+            )
+        )
+    )
+)</f>
+        <v>0</v>
+      </c>
+      <c r="B55" s="38">
+        <v>0</v>
+      </c>
+      <c r="C55" s="35">
+        <v>0</v>
+      </c>
+      <c r="D55" s="35">
+        <v>0</v>
+      </c>
+      <c r="E55" s="35">
+        <v>0</v>
+      </c>
+      <c r="F55" s="35">
+        <v>0</v>
+      </c>
+      <c r="G55" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A56" s="43">
-        <v>0</v>
-      </c>
-      <c r="B56" s="43">
-        <v>0</v>
-      </c>
-      <c r="C56" s="43">
-        <v>0</v>
-      </c>
-      <c r="D56" s="43">
-        <v>0</v>
-      </c>
-      <c r="E56" s="43">
+      <c r="A56" s="40">
+        <v>0</v>
+      </c>
+      <c r="B56" s="40">
+        <v>0</v>
+      </c>
+      <c r="C56" s="40">
+        <v>0</v>
+      </c>
+      <c r="D56" s="40">
+        <v>0</v>
+      </c>
+      <c r="E56" s="40">
         <v>12</v>
       </c>
-      <c r="F56" s="43">
-        <v>0</v>
-      </c>
-      <c r="G56" s="43">
+      <c r="F56" s="40">
+        <v>0</v>
+      </c>
+      <c r="G56" s="40">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="43">
+      <c r="A57" s="40">
         <v>15</v>
       </c>
-      <c r="B57" s="43">
-        <v>0</v>
-      </c>
-      <c r="C57" s="43">
-        <v>0</v>
-      </c>
-      <c r="D57" s="43">
-        <v>0</v>
-      </c>
-      <c r="E57" s="43">
-        <v>0</v>
-      </c>
-      <c r="F57" s="43">
-        <v>0</v>
-      </c>
-      <c r="G57" s="43">
+      <c r="B57" s="40">
+        <v>0</v>
+      </c>
+      <c r="C57" s="40">
+        <v>0</v>
+      </c>
+      <c r="D57" s="40">
+        <v>0</v>
+      </c>
+      <c r="E57" s="40">
+        <v>0</v>
+      </c>
+      <c r="F57" s="40">
+        <v>0</v>
+      </c>
+      <c r="G57" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="43">
-        <v>0</v>
-      </c>
-      <c r="B58" s="43">
-        <v>0</v>
-      </c>
-      <c r="C58" s="43">
-        <v>0</v>
-      </c>
-      <c r="D58" s="43">
-        <v>0</v>
-      </c>
-      <c r="E58" s="43">
-        <v>0</v>
-      </c>
-      <c r="F58" s="43">
-        <v>0</v>
-      </c>
-      <c r="G58" s="43">
+      <c r="A58" s="40">
+        <v>0</v>
+      </c>
+      <c r="B58" s="40">
+        <v>0</v>
+      </c>
+      <c r="C58" s="40">
+        <v>0</v>
+      </c>
+      <c r="D58" s="40">
+        <v>0</v>
+      </c>
+      <c r="E58" s="40">
+        <v>0</v>
+      </c>
+      <c r="F58" s="40">
+        <v>0</v>
+      </c>
+      <c r="G58" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="43">
-        <v>0</v>
-      </c>
-      <c r="B59" s="43">
-        <v>0</v>
-      </c>
-      <c r="C59" s="43">
-        <v>0</v>
-      </c>
-      <c r="D59" s="43">
-        <v>0</v>
-      </c>
-      <c r="E59" s="43">
-        <v>0</v>
-      </c>
-      <c r="F59" s="43">
-        <v>0</v>
-      </c>
-      <c r="G59" s="38">
+      <c r="A59" s="40">
+        <v>0</v>
+      </c>
+      <c r="B59" s="40">
+        <v>0</v>
+      </c>
+      <c r="C59" s="40">
+        <v>0</v>
+      </c>
+      <c r="D59" s="40">
+        <v>0</v>
+      </c>
+      <c r="E59" s="40">
+        <v>0</v>
+      </c>
+      <c r="F59" s="40">
+        <v>0</v>
+      </c>
+      <c r="G59" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="45"/>
+      <c r="A61" s="42"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="K5l8foIupXd20a53xOo+I/RmRQe/oFEU2viRjBOLNjDHhMQIF9ktWHc7lOCNvfnYCGLarlAQ/3cL6D2R7vWhcQ==" saltValue="Ib/umqb+nSLxGXCtdtkk+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
